--- a/biology/Médecine/Pneumomédiastin_spontané/Pneumomédiastin_spontané.xlsx
+++ b/biology/Médecine/Pneumomédiastin_spontané/Pneumomédiastin_spontané.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pneumomédiastin spontané est la présence anormale d'air dans le médiastin, survenant sans facteur déclenchant retrouvé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Epidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pneumomédiastin spontané est une affection rare, qui touche le plus souvent les jeunes adultes entre 20 et 25 ans, avec une prédominance masculine[1]. Il est généralement considéré comme un équivalent de pneumothorax spontané.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pneumomédiastin spontané est une affection rare, qui touche le plus souvent les jeunes adultes entre 20 et 25 ans, avec une prédominance masculine. Il est généralement considéré comme un équivalent de pneumothorax spontané.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évolution est généralement favorable de manière spontanée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolution est généralement favorable de manière spontanée.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Imagerie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est le plus souvent posé grâce à un scanner thoracique, qui retrouve une infiltration d'air dans le médiastin.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les diagnostics différentiels sont les pneumomédiastins secondaires à la rupture des organes creux, trachée et œsophage. L'anamnèse permet généralement de trancher en fonction du contexte : absence de traumatisme thoracique à haute cinétique, pas de contexte iatrogène[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diagnostics différentiels sont les pneumomédiastins secondaires à la rupture des organes creux, trachée et œsophage. L'anamnèse permet généralement de trancher en fonction du contexte : absence de traumatisme thoracique à haute cinétique, pas de contexte iatrogène.
 </t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pneumom%C3%A9diastin_spontan%C3%A9</t>
+          <t>Pneumomédiastin_spontané</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas de traitement particulier. Une surveillance simple est généralement réalisée[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de traitement particulier. Une surveillance simple est généralement réalisée.
 </t>
         </is>
       </c>
